--- a/ITP/ITP#36_解答.xlsx
+++ b/ITP/ITP#36_解答.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7C9489-DF9D-45F6-A4CC-C34B5A2CA826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="795" windowWidth="9240" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="795" windowWidth="9240" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,11 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E27" sqref="E2:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -528,7 +527,9 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -540,7 +541,9 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -552,7 +555,9 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -566,7 +571,9 @@
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
@@ -578,7 +585,9 @@
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
@@ -590,7 +599,9 @@
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -608,7 +619,9 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -620,7 +633,9 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
@@ -632,7 +647,9 @@
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
@@ -646,7 +663,9 @@
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
@@ -658,7 +677,9 @@
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -670,7 +691,9 @@
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
@@ -688,7 +711,9 @@
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -700,7 +725,9 @@
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -712,7 +739,9 @@
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
@@ -724,7 +753,9 @@
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
@@ -738,7 +769,9 @@
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
@@ -750,7 +783,9 @@
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
@@ -762,7 +797,9 @@
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
@@ -780,7 +817,9 @@
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
@@ -792,7 +831,9 @@
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
@@ -804,7 +845,9 @@
       <c r="E23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
@@ -816,7 +859,9 @@
       <c r="E24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
@@ -830,7 +875,9 @@
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -842,7 +889,9 @@
       <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
@@ -854,7 +903,9 @@
       <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
@@ -873,281 +924,33 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <f>COUNT(D2:D29)</f>
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <f>SUM(F2:F29)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61">
-        <f>COUNT(D2:D60)</f>
-        <v>26</v>
-      </c>
-      <c r="F61">
-        <f>SUM(F2:F60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C63" t="s">
+      <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="2">
-        <f>F61/D61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C64" t="s">
+      <c r="D32" s="2">
+        <f>F30/D30</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D64" t="str">
-        <f>IF(D63&gt;=80%,"受け取り","レポート")</f>
+      <c r="D33" t="str">
+        <f>IF(D32&gt;=80%,"受け取り","レポート")</f>
         <v>レポート</v>
       </c>
     </row>
